--- a/biology/Médecine/Nicolas-Claude-Joseph_Godelle/Nicolas-Claude-Joseph_Godelle.xlsx
+++ b/biology/Médecine/Nicolas-Claude-Joseph_Godelle/Nicolas-Claude-Joseph_Godelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas-Claude-Joseph Godelle, né à Aubenton le 13 septembre 1773 et mort à Soissons le 15 septembre 1842, est un médecin français du début du XIXe siècle, principalement connu en tant qu'« antiquaire » (archéologue) et étymologiste amateur.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entré en qualité de sergent-major dans la huitième compagnie du 4e bataillon de Volontaires de l'Aisne en août 1792, le jeune Godelle fait la campagne de Champagne puis celle de Belgique sous le commandement de Dumouriez. Nommé sous-lieutenant en mai 1793, il intègre avec son bataillon l'armée du Nord l'année suivante. Blessé par un coup de feu à l'articulation du genou droit lors de la bataille de Fleurus, le 26 juin 1794, il est admis à la retraite à l'âge de vingt ans.
 Godelle étudie alors la médecine et obtient son diplôme de docteur le 24 octobre 1804. Il s'établit tout d'abord à Vervins, où il lutte contre le typhus, puis à Soissons. En mars 1814, pendant le siège de Soissons, il est nommé médecin-en-chef de l'Hôtel-Dieu de cette ville. À cette occasion, sa conduite lui vaut d'être décoré de la Légion d'honneur par décret impérial du 11 avril 1815 (confirmé en 1831). Le docteur Godelle est l'auteur de plusieurs mémoires, portant notamment sur les épidémies et le goître, parus pour la plupart dans la Bibliothèque médicale.
@@ -548,7 +562,9 @@
           <t>Sources bibliographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Émile Collet, « Le docteur Godelle archéologue », Bulletin de la Société archéologique, historique et scientifique de Soissons, t. XI, 1880, p. 257-291.</t>
         </is>
